--- a/src/main/resources/data.xlsx
+++ b/src/main/resources/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JOB\rule_engine3\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173F633C-7B99-4FCB-9255-5B39A1EB8668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4E241A-FE51-4F81-AD19-A76E1B00B5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="3696" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
-  <si>
-    <t>AccontType</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
   <si>
     <t>RoleType</t>
   </si>
@@ -55,6 +52,36 @@
   </si>
   <si>
     <t>R4</t>
+  </si>
+  <si>
+    <t>AccountType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
+    <t>O1</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>O4</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
+    <t>O5</t>
+  </si>
+  <si>
+    <t>OrganizationName</t>
+  </si>
+  <si>
+    <t>ShareHolding</t>
+  </si>
+  <si>
+    <t>totalAccBalance</t>
   </si>
 </sst>
 </file>
@@ -378,104 +405,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>100000</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>200000</v>
+      </c>
+      <c r="F3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="E4">
+        <v>300000</v>
+      </c>
+      <c r="F4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>400000</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>500000</v>
+      </c>
+      <c r="F6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>600000</v>
+      </c>
+      <c r="F7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E8">
+        <v>700000</v>
+      </c>
+      <c r="F8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>800000</v>
+      </c>
+      <c r="F9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="E10">
+        <v>600000</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
+      <c r="E11">
+        <v>500000</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
